--- a/ejemplos/modelos_masa/Bpubescens_Galicia_IFN_todo.xlsx
+++ b/ejemplos/modelos_masa/Bpubescens_Galicia_IFN_todo.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,42 +452,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D2">
+        <v>273</v>
+      </c>
+      <c r="E2">
         <v>1997</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G2">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H2">
         <v>0.40640625</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-8.190922441671828</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.95301197281037</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>71.25654636913836</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>67.89783906171351</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>65.50079475807631</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>64.56066930579185</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>62.89569284896939</v>
       </c>
     </row>
@@ -498,42 +506,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D3">
+        <v>273</v>
+      </c>
+      <c r="E3">
         <v>1997</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>884.1941282883074</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.17064583333333</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>17.34053253486138</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-7.834569858044322</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>43.64326396846405</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>44.07014209294089</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>43.81674138127039</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>42.50725885705742</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>41.7179574497917</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>40.93429682900653</v>
       </c>
     </row>
@@ -549,42 +560,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D4">
+        <v>273</v>
+      </c>
+      <c r="E4">
         <v>1998</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>166.2284961182018</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.976559722222222</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>18.4050080289442</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-7.352438045216509</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>43.59231250037029</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>45.78781055084021</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>44.63867850078805</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>43.3611726042578</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>42.38624869522479</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>41.51373082302193</v>
       </c>
     </row>
@@ -600,42 +614,45 @@
         </is>
       </c>
       <c r="C5">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D5">
+        <v>273</v>
+      </c>
+      <c r="E5">
         <v>1998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>541.1268065124441</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.44243125</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9.273239544735164</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-7.868204855180373</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>42.50002044222303</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>74.22106303245872</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>68.7448071780411</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>66.14206843359645</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>65.04555027356345</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>62.87500028627821</v>
       </c>
     </row>
@@ -651,42 +668,45 @@
         </is>
       </c>
       <c r="C6">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D6">
+        <v>273</v>
+      </c>
+      <c r="E6">
         <v>2008</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>541.1268065124441</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.512775</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.818309886183791</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-8.385254196861371</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>43.13431478758018</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>66.32830546710116</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>62.42402594406715</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>60.44601739303107</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>59.48610354043337</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>58.13638703852753</v>
       </c>
     </row>
@@ -702,42 +722,45 @@
         </is>
       </c>
       <c r="C7">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D7">
+        <v>273</v>
+      </c>
+      <c r="E7">
         <v>2008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1591.549430918953</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>14.4286</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14.09577460263039</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-7.799710875196475</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>43.52585399983012</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>61.3847642868816</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>56.74263466676266</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>54.92756279025014</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>53.84559616537548</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>52.90624457621328</v>
       </c>
     </row>
@@ -753,42 +776,45 @@
         </is>
       </c>
       <c r="C8">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D8">
+        <v>273</v>
+      </c>
+      <c r="E8">
         <v>2008</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>127.3239544735163</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.6241</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-7.747428073278471</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>43.66034956728645</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>51.89912695314067</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>50.63309387257181</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>49.25820238347393</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>48.12698388414038</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>47.25998585035025</v>
       </c>
     </row>
@@ -804,42 +830,45 @@
         </is>
       </c>
       <c r="C9">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D9">
+        <v>273</v>
+      </c>
+      <c r="E9">
         <v>2008</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>174.8582308102957</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.916142944444444</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14.33114251432034</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-8.048710142009879</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>43.42915325635439</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>54.7400853021037</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>53.12813142066179</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>51.43464396099759</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>50.52189162951589</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>49.44492792789701</v>
       </c>
     </row>
@@ -855,42 +884,45 @@
         </is>
       </c>
       <c r="C10">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D10">
+        <v>273</v>
+      </c>
+      <c r="E10">
         <v>2008</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>809.9218215120895</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10.32679236111111</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10.72281716317981</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-7.912350386468036</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>43.45494956457978</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>55.89953411187241</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>51.78405420268825</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>50.15749429959361</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>49.2426099000077</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>48.30870856397813</v>
       </c>
     </row>
@@ -906,42 +938,45 @@
         </is>
       </c>
       <c r="C11">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="D11">
+        <v>273</v>
+      </c>
+      <c r="E11">
         <v>2009</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>987.8924156539601</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>27.10936163888889</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>18.81889556960184</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-8.13937916724651</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>43.1327295413781</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>68.82172994171015</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>65.78233814579345</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>63.4232927283477</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>62.44635179288354</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>61.02200179116824</v>
       </c>
     </row>
@@ -957,42 +992,45 @@
         </is>
       </c>
       <c r="C12">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D12">
+        <v>273</v>
+      </c>
+      <c r="E12">
         <v>2009</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>29</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>584.699893154492</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>25.51210288888889</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>18.95369659912198</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-7.719757325537278</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>43.2098430854286</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>60.54814169398382</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>56.26547094826715</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>54.38297858546902</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>53.32866390164182</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>52.12858384013901</v>
       </c>
     </row>
@@ -1008,42 +1046,45 @@
         </is>
       </c>
       <c r="C13">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D13">
+        <v>273</v>
+      </c>
+      <c r="E13">
         <v>2009</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1093.995711048557</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>33.5575915</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18.83342764482958</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-7.621506810809525</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>43.19969689558175</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>58.85696580609301</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>56.41742855146686</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>54.42948235132035</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>53.37062919266364</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>52.09431360857458</v>
       </c>
     </row>
@@ -1059,42 +1100,45 @@
         </is>
       </c>
       <c r="C14">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D14">
+        <v>273</v>
+      </c>
+      <c r="E14">
         <v>2009</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1645.308433918882</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>28.29437244444444</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>20.55765702988831</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-7.191444749772401</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>43.17569673343558</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>55.08622922202269</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>49.79060387196775</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>48.06675936413072</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>46.9547327559919</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>45.8541559908024</v>
       </c>
     </row>
@@ -1110,42 +1154,45 @@
         </is>
       </c>
       <c r="C15">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D15">
+        <v>273</v>
+      </c>
+      <c r="E15">
         <v>2009</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>49</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>986.7606471697511</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>24.88347569444444</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14.53953046920755</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-7.006123831229727</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>43.19962858375175</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>60.56391853554474</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>55.25212427271578</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>53.22905020843132</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>51.84070475275401</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>50.51254080228801</v>
       </c>
     </row>
@@ -1161,42 +1208,45 @@
         </is>
       </c>
       <c r="C16">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D16">
+        <v>273</v>
+      </c>
+      <c r="E16">
         <v>2009</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1009.82043003551</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>38.47288663888889</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>23.13308264506944</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-7.62231681997358</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>43.16368922837985</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>59.13599995658121</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>55.90155165090489</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>53.89740880560581</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>52.85590116376017</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>51.60889811982624</v>
       </c>
     </row>
@@ -1212,42 +1262,45 @@
         </is>
       </c>
       <c r="C17">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D17">
+        <v>273</v>
+      </c>
+      <c r="E17">
         <v>2009</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2429.765464536269</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24.05512638888889</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>17.95367762803309</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-7.64730875156194</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>43.14597867994091</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>60.61250533074499</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>57.48787074309233</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>55.5484557946441</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>54.36023094309409</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>53.14345257010019</v>
       </c>
     </row>
@@ -1263,42 +1316,45 @@
         </is>
       </c>
       <c r="C18">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D18">
+        <v>273</v>
+      </c>
+      <c r="E18">
         <v>2009</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1140.398218901127</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>29.1365285</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>19.74567270891256</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-7.575635997497279</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>43.05506406881801</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>61.6341702725151</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>58.07692318540798</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>56.01125570170159</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>54.85000864280784</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>53.53052441779761</v>
       </c>
     </row>
@@ -1314,42 +1370,45 @@
         </is>
       </c>
       <c r="C19">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D19">
+        <v>273</v>
+      </c>
+      <c r="E19">
         <v>2009</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>19</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2125.602684405091</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>26.93085486111111</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15.4607512417722</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-7.551085617162141</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>43.05475581416745</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>61.6341702725151</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>57.76430754977329</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>55.69994714106029</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>54.62499990955823</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>53.26446283615545</v>
       </c>
     </row>
@@ -1365,42 +1424,45 @@
         </is>
       </c>
       <c r="C20">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D20">
+        <v>273</v>
+      </c>
+      <c r="E20">
         <v>2009</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>36</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>730.1321433753527</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>13.27356308333333</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>15.93767014356511</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-7.192241247627795</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>43.14869653834604</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>58.0719842820973</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>53.19833663422513</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>51.44386931629964</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>50.17068427030524</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>48.92066243538141</v>
       </c>
     </row>
@@ -1416,42 +1478,45 @@
         </is>
       </c>
       <c r="C21">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D21">
+        <v>273</v>
+      </c>
+      <c r="E21">
         <v>2009</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>23</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1725.946938418776</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>27.84737986111111</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>17.22281716317984</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-7.303618014394906</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>43.12338955938383</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>63.26297765564475</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>57.5184638210587</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>55.34426236718634</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>54.18103474259873</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>52.74959931772215</v>
       </c>
     </row>
@@ -1467,42 +1532,45 @@
         </is>
       </c>
       <c r="C22">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D22">
+        <v>273</v>
+      </c>
+      <c r="E22">
         <v>2009</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>14.14710605261292</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.807002777777778</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>11.6999998092651</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-7.304860354845038</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>43.07838604292662</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>64.75969531722733</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>61.62781832569439</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>59.37864807287859</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>58.11978486011069</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>56.37465564738292</v>
       </c>
     </row>
@@ -1518,42 +1586,45 @@
         </is>
       </c>
       <c r="C23">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D23">
+        <v>273</v>
+      </c>
+      <c r="E23">
         <v>2009</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>187.4491551971212</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5.273312499999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>18.92644740518992</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-7.044463117910925</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>43.15526964679967</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>61.8011189175826</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>56.7879599105657</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>54.71549290875046</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>53.28399622921057</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>51.86813195872767</v>
       </c>
     </row>
@@ -1569,42 +1640,45 @@
         </is>
       </c>
       <c r="C24">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D24">
+        <v>273</v>
+      </c>
+      <c r="E24">
         <v>2009</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>46</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>590.2172645150109</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>17.24058711111111</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18.13605217228244</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-7.10620252060525</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>43.14730433899477</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>61.54393627757917</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>58.09414483093116</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>55.98340557415525</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>54.61638482355205</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>53.17629721417224</v>
       </c>
     </row>
@@ -1620,42 +1694,45 @@
         </is>
       </c>
       <c r="C25">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D25">
+        <v>273</v>
+      </c>
+      <c r="E25">
         <v>2009</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>26</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>943.4705026487555</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>30.72072277777778</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>19.30064241312517</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-7.724724859977717</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>43.56105743347344</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>55.08243262465957</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>53.17312951131964</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>51.51198417669897</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>50.42052724412873</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>49.41800787049037</v>
       </c>
     </row>
@@ -1671,42 +1748,45 @@
         </is>
       </c>
       <c r="C26">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D26">
+        <v>273</v>
+      </c>
+      <c r="E26">
         <v>2009</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>37</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>247.5743559207261</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5.201059722222222</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>11.02748070875089</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-7.712346611383567</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>43.5609186689259</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>55.08243262465957</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>53.74703398063247</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>51.9891599363873</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>50.97534832132409</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>49.966305947433</v>
       </c>
     </row>
@@ -1722,42 +1802,45 @@
         </is>
       </c>
       <c r="C27">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D27">
+        <v>273</v>
+      </c>
+      <c r="E27">
         <v>2009</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>22</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1015.054859274977</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>10.5680125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>10.96200327229045</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-6.99911041238368</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>43.03742945864489</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>55.64506834913829</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>55.64954692549992</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>53.65073455804178</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>52.26373635502304</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>50.76672117129169</v>
       </c>
     </row>
@@ -1773,42 +1856,45 @@
         </is>
       </c>
       <c r="C28">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D28">
+        <v>273</v>
+      </c>
+      <c r="E28">
         <v>2009</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>32</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1005.151885038148</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>31.13214722222222</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>22.68908423073521</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-7.52847160052072</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>42.97342597770372</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>61.45742098501256</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>57.42977502609086</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>55.30145513698677</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>54.23983591236787</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>52.87722247913781</v>
       </c>
     </row>
@@ -1824,42 +1910,45 @@
         </is>
       </c>
       <c r="C29">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D29">
+        <v>273</v>
+      </c>
+      <c r="E29">
         <v>2009</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>30</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>284.4983027180458</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>18.70296163888889</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>19.25925395015117</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-7.79836257113449</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>42.96757333704452</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>69.49218514445994</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>65.51863378932691</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>63.19681068977727</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>62.02680944002368</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>60.38270708552548</v>
       </c>
     </row>
@@ -1875,42 +1964,45 @@
         </is>
       </c>
       <c r="C30">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D30">
+        <v>273</v>
+      </c>
+      <c r="E30">
         <v>2009</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>10</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>322.5540179995746</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>11.86648622222222</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>15.42577227927531</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-7.712551804452327</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>42.96664020207171</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>69.90142141778465</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>64.12849053350135</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>61.94664728611833</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>60.71415891297101</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>59.1016380601148</v>
       </c>
     </row>
@@ -1926,42 +2018,45 @@
         </is>
       </c>
       <c r="C31">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D31">
+        <v>273</v>
+      </c>
+      <c r="E31">
         <v>2009</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>14</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1897.268392715918</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>22.96273211111111</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>15.68647869823406</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-7.749691996756704</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>42.94904252763677</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>69.62640383397769</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>64.36363655894256</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>62.11055281165643</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>60.98673722054359</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>59.27432074648186</v>
       </c>
     </row>
@@ -1977,42 +2072,45 @@
         </is>
       </c>
       <c r="C32">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D32">
+        <v>273</v>
+      </c>
+      <c r="E32">
         <v>2009</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>60</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>394.8457299284266</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>21.94266122222222</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>20.69587495389166</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-6.981055692538528</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>42.83901321959122</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>62.03533884158864</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>60.20274306547897</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>57.79515253423673</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>56.29971159635999</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>54.56410260116552</v>
       </c>
     </row>
@@ -2028,42 +2126,45 @@
         </is>
       </c>
       <c r="C33">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D33">
+        <v>273</v>
+      </c>
+      <c r="E33">
         <v>2009</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>28</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>36.92394679731972</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.596466</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.862068801090638</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-6.858776456751998</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>42.83679086837603</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>74.68430552392637</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>71.72902347485082</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>68.69055367480085</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>66.82573485693734</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>64.49116915145933</v>
       </c>
     </row>
@@ -2079,42 +2180,45 @@
         </is>
       </c>
       <c r="C34">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D34">
+        <v>273</v>
+      </c>
+      <c r="E34">
         <v>2009</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>23</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>538.2973853019215</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>26.24612691666667</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>19.45852643016363</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-7.899002829418641</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>42.82450807853488</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>71.46882831401906</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>66.20541348467712</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>63.71418474475827</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>62.69780435260466</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>60.91223218448845</v>
       </c>
     </row>
@@ -2130,42 +2234,45 @@
         </is>
       </c>
       <c r="C35">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D35">
+        <v>273</v>
+      </c>
+      <c r="E35">
         <v>2009</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>36</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>676.656082496476</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>28.16673894444444</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>22.35214026172566</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-7.911707668269306</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>42.79761458749478</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>71.46882831401906</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>67.33657468564633</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>64.90405117820694</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>63.69747869381894</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>61.97848007410093</v>
       </c>
     </row>
@@ -2181,42 +2288,45 @@
         </is>
       </c>
       <c r="C36">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D36">
+        <v>273</v>
+      </c>
+      <c r="E36">
         <v>2009</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>39</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>420.0275787020776</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>25.01033263888889</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>19.44320755020687</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-7.948842661885346</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>42.77094641422963</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>75.28784772205532</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>69.80779758420366</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>67.19653162984638</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>66.10676184628257</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>64.20031733416148</v>
       </c>
     </row>
@@ -2232,42 +2342,45 @@
         </is>
       </c>
       <c r="C37">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D37">
+        <v>273</v>
+      </c>
+      <c r="E37">
         <v>2009</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>31</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2014.689372952606</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>22.663166</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>15.17895862545276</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-7.936621943622468</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>42.77083357927398</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>75.28784772205532</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>69.59956127214808</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>66.99386493844774</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>65.9082832065332</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>64.00563655956827</v>
       </c>
     </row>
@@ -2283,42 +2396,45 @@
         </is>
       </c>
       <c r="C38">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D38">
+        <v>273</v>
+      </c>
+      <c r="E38">
         <v>2009</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>35</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>875.4229225356875</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>35.94867369444444</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>22.2861146802399</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-7.875519430376676</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>42.77024984734941</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>73.66915957588191</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>68.67759565824046</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>66.16822434443058</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>65.02567734531492</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>63.12686445724201</v>
       </c>
     </row>
@@ -2334,42 +2450,45 @@
         </is>
       </c>
       <c r="C39">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D39">
+        <v>273</v>
+      </c>
+      <c r="E39">
         <v>2009</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>20</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1622.107179992597</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>38.75055963888889</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>21.26907646038339</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-7.71628997700543</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>42.78658542153504</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>71.41233576296035</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>66.76889370453797</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>64.26489098493053</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>63.14893649055063</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>61.25417166678406</v>
       </c>
     </row>
@@ -2385,42 +2504,45 @@
         </is>
       </c>
       <c r="C40">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D40">
+        <v>273</v>
+      </c>
+      <c r="E40">
         <v>2009</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>34</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>532.7800139414026</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>30.46305183333333</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>23.4169743235586</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-7.80237235145667</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>42.76050313050259</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>72.11561435513012</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>68.10751537005984</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>65.59999974637418</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>64.47761213696367</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>62.60869561013321</v>
       </c>
     </row>
@@ -2436,42 +2558,45 @@
         </is>
       </c>
       <c r="C41">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D41">
+        <v>273</v>
+      </c>
+      <c r="E41">
         <v>2009</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>10</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2485.929475565142</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>27.1713615</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>14.94514687727096</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-7.471408742569244</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>42.80158771386004</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>67.70934354616116</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>62.9113464374207</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>60.73381307985673</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>59.49008491552069</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>57.67409237064116</v>
       </c>
     </row>
@@ -2487,42 +2612,45 @@
         </is>
       </c>
       <c r="C42">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D42">
+        <v>273</v>
+      </c>
+      <c r="E42">
         <v>2009</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>32</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>802.8482684857831</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>13.74837083333333</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>16.58892056952896</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-7.288053405318401</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>42.79899268074168</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>66.56586993940014</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>62.02855009021092</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>59.61190142960486</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>58.13420636046106</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>56.38163801862361</v>
       </c>
     </row>
@@ -2538,42 +2666,45 @@
         </is>
       </c>
       <c r="C43">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D43">
+        <v>273</v>
+      </c>
+      <c r="E43">
         <v>2009</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>14</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>255.7796774312416</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>13.41032552777778</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>21.20395641592665</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-7.203537623026584</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>42.76167834333581</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>66.60216424875746</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>60.61340410391801</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>58.31190611351241</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>57.05278575920796</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>55.26745247421644</v>
       </c>
     </row>
@@ -2589,42 +2720,45 @@
         </is>
       </c>
       <c r="C44">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D44">
+        <v>273</v>
+      </c>
+      <c r="E44">
         <v>2009</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>29</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>870.0470222356945</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>15.38868541666667</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>10.73758989997723</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-6.883845478702507</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>42.81924791431418</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>72.25715185440228</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>67.56930980916935</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>64.75548066322116</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>62.84177884225679</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>60.83333349700466</v>
       </c>
     </row>
@@ -2640,42 +2774,45 @@
         </is>
       </c>
       <c r="C45">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D45">
+        <v>273</v>
+      </c>
+      <c r="E45">
         <v>2009</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>21</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1674.451472387265</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>30.016614</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>12.12758567704456</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>-6.884459206004906</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>42.80124998673706</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>72.25715185440228</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>67.87878803138919</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>65.05902175812778</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>63.08996891788331</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>61.02941176266268</v>
       </c>
     </row>
@@ -2691,42 +2828,45 @@
         </is>
       </c>
       <c r="C46">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D46">
+        <v>273</v>
+      </c>
+      <c r="E46">
         <v>2009</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>45</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>485.6701507862015</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>16.53713416666667</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>16.11883355559895</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-7.39003534102895</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>42.63838283118717</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>66.94218324755707</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>62.55296410425866</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>60.19982451389649</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>59.06800141962833</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>57.09991455640075</v>
       </c>
     </row>
@@ -2742,42 +2882,45 @@
         </is>
       </c>
       <c r="C47">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D47">
+        <v>273</v>
+      </c>
+      <c r="E47">
         <v>2009</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>36</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1209.577567498405</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>33.44709722222222</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>22.3278873923128</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-7.377819815558168</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>43.10645708806837</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>61.23494715326348</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>59.08787538056599</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>57.06754550900401</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>55.86729182345351</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>54.31533780643639</v>
       </c>
     </row>
@@ -2793,42 +2936,45 @@
         </is>
       </c>
       <c r="C48">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D48">
+        <v>273</v>
+      </c>
+      <c r="E48">
         <v>2009</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>15</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>705.3747077832801</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>7.27122725</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>11.52309899068992</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-7.713114725338382</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>42.93963236568676</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>69.62640383397769</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>64.32087528169873</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>62.0190753544731</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>60.93617021276596</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>59.21968360590835</v>
       </c>
     </row>
@@ -2844,42 +2990,45 @@
         </is>
       </c>
       <c r="C49">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D49">
+        <v>273</v>
+      </c>
+      <c r="E49">
         <v>2009</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>35</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>794.5014759147415</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>28.8553685</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>18.3961976712232</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-7.655053971556697</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>43.35316803976872</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>58.58747912805591</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>54.82476818690908</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>52.99317257175555</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>51.92409996504485</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>50.75299101330658</v>
       </c>
     </row>
@@ -2895,42 +3044,45 @@
         </is>
       </c>
       <c r="C50">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D50">
+        <v>273</v>
+      </c>
+      <c r="E50">
         <v>2009</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>15</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>495.1487118414522</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>18.72672013888889</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>22.08738675131919</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-7.187713151454759</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>43.30169578850629</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>49.41321945861525</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>46.16819206772173</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>44.6645039904753</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>43.64739601232601</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>42.62207361258159</v>
       </c>
     </row>
@@ -2946,42 +3098,45 @@
         </is>
       </c>
       <c r="C51">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D51">
+        <v>273</v>
+      </c>
+      <c r="E51">
         <v>2009</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>25</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>166.2284961182018</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5.656950694444444</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>14.99320836707532</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-7.90694106965027</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>43.0677131851809</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>71.52051935189901</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>67.79381437239623</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>65.34543435700637</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>64.21917811015716</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>62.54255717416566</v>
       </c>
     </row>
@@ -2997,42 +3152,45 @@
         </is>
       </c>
       <c r="C52">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D52">
+        <v>273</v>
+      </c>
+      <c r="E52">
         <v>2009</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>20</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>952.9490637040062</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>17.8944615</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>15.71054782208546</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-7.895792389007156</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>43.0045736659747</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>72.76859075423064</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>68.98311478595764</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>66.60244497359294</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>65.22739745910496</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>63.68411487750711</v>
       </c>
     </row>
@@ -3048,42 +3206,45 @@
         </is>
       </c>
       <c r="C53">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D53">
+        <v>273</v>
+      </c>
+      <c r="E53">
         <v>2009</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>29</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1203.635782956307</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>40.79688775</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>21.65881090864714</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-7.611039033052912</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>43.11853077698016</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>60.12831031166206</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>55.93058258189858</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>53.90239660450305</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>52.87292797656394</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>51.57534242364206</v>
       </c>
     </row>
@@ -3099,42 +3260,45 @@
         </is>
       </c>
       <c r="C54">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D54">
+        <v>273</v>
+      </c>
+      <c r="E54">
         <v>2009</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>34</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>484.5383823019924</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>18.86505902777778</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>22.89142429088421</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-7.279800090856994</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>43.09602076964062</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>62.94957985911093</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>59.1447860854743</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>56.90401326087045</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>55.73459706919908</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>54.19494573175919</v>
       </c>
     </row>
@@ -3150,42 +3314,45 @@
         </is>
       </c>
       <c r="C55">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D55">
+        <v>273</v>
+      </c>
+      <c r="E55">
         <v>2009</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>2270.186108262795</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>15.58490425</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>14.64632130804668</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>-7.589560954836835</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>42.98319984361198</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>64.54643638995655</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>59.6262681608999</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>57.42796921892655</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>56.30193911394776</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>54.83948484386521</v>
       </c>
     </row>
@@ -3201,42 +3368,45 @@
         </is>
       </c>
       <c r="C56">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D56">
+        <v>273</v>
+      </c>
+      <c r="E56">
         <v>2009</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>30</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>739.186291249025</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>17.05145347222222</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>18.19605679626786</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-7.724996173089065</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>42.95777480440555</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>69.62640383397769</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>65.91018297225223</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>63.55644720596499</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>62.43622005099562</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>60.64102565132333</v>
       </c>
     </row>
@@ -3252,42 +3422,45 @@
         </is>
       </c>
       <c r="C57">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D57">
+        <v>273</v>
+      </c>
+      <c r="E57">
         <v>2009</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>19</v>
       </c>
-      <c r="F57">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G57">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H57">
         <v>0.4000562500000001</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>10.6000003814697</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-7.78681118684414</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>42.93143248574498</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>68.73347987453747</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>64.30663553327796</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>62.02391587026263</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>60.90749196834541</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>59.2566741144856</v>
       </c>
     </row>
@@ -3303,42 +3476,45 @@
         </is>
       </c>
       <c r="C58">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D58">
+        <v>273</v>
+      </c>
+      <c r="E58">
         <v>2009</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>15</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>884.1941282883074</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>12.14914305555556</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>14.86519574756886</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-7.775629045618909</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>42.87728454251</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>70.05721336040936</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>67.65697397969734</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>65.23121936590618</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>63.97408235894014</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>62.18415392690388</v>
       </c>
     </row>
@@ -3354,42 +3530,45 @@
         </is>
       </c>
       <c r="C59">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D59">
+        <v>273</v>
+      </c>
+      <c r="E59">
         <v>2009</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>9</v>
       </c>
-      <c r="F59">
-        <v>31.83098861837907</v>
-      </c>
       <c r="G59">
+        <v>31.83098861837907</v>
+      </c>
+      <c r="H59">
         <v>0.497025</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>9.10000038146973</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-7.800285584596956</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>42.86854073963893</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>72.28710292311951</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>67.20528820848371</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>64.78260869565217</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>63.54326526636707</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>61.76158478649679</v>
       </c>
     </row>
@@ -3405,42 +3584,45 @@
         </is>
       </c>
       <c r="C60">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D60">
+        <v>273</v>
+      </c>
+      <c r="E60">
         <v>2009</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>15</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>106.1032953945969</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>5.639361805555555</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>18.22012522702653</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>-7.311274619069559</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>42.84436154480699</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>62.46478560410952</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>59.81403797424005</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>57.54133708367301</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>56.28581543740804</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>54.6276500669374</v>
       </c>
     </row>
@@ -3456,42 +3638,45 @@
         </is>
       </c>
       <c r="C61">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D61">
+        <v>273</v>
+      </c>
+      <c r="E61">
         <v>2009</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>27</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>558.8106890782103</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>20.24620347222222</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>23.57518011396552</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-7.876007743285734</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>42.74323945762127</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>76.83958427758735</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>69.63753449862004</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>67.02937992291237</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>65.84450424591319</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>63.9319875823732</v>
       </c>
     </row>
@@ -3507,42 +3692,45 @@
         </is>
       </c>
       <c r="C62">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D62">
+        <v>273</v>
+      </c>
+      <c r="E62">
         <v>2009</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>18</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1718.87338539247</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>17.9240875</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>18</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>-7.510886648646408</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>42.68504331742196</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>69.64829639862411</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>64.44284672363837</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>61.99716748426496</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>60.77378875637559</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>58.89214876723855</v>
       </c>
     </row>
@@ -3558,42 +3746,45 @@
         </is>
       </c>
       <c r="C63">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D63">
+        <v>273</v>
+      </c>
+      <c r="E63">
         <v>2009</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>22</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>236.9640263812664</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>3.596786111111111</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>11.55971855698027</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-7.080838182529143</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>42.77769677766656</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>64.15654489439576</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>58.67587786726693</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>56.30020762466004</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>55.02873040311304</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>53.24532449986698</v>
       </c>
     </row>
@@ -3609,42 +3800,45 @@
         </is>
       </c>
       <c r="C64">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D64">
+        <v>273</v>
+      </c>
+      <c r="E64">
         <v>2009</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>51</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>993.8342001960575</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>27.52091458333333</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>20.43370905343941</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-7.143001912987459</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>42.742702777443</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>71.14511925866505</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>62.19598551284134</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>59.75642774808549</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>58.27985560772451</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>56.32745000202159</v>
       </c>
     </row>
@@ -3660,42 +3854,45 @@
         </is>
       </c>
       <c r="C65">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D65">
+        <v>273</v>
+      </c>
+      <c r="E65">
         <v>2009</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>50</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>148.5446135524356</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>6.191534027777778</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>12.12053223385256</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-7.069739147348755</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>42.74149101617269</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>64.68345709864212</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>61.88588584711591</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>59.42137382618532</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>57.89107787472124</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>55.93433855951147</v>
       </c>
     </row>
@@ -3711,42 +3908,45 @@
         </is>
       </c>
       <c r="C66">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D66">
+        <v>273</v>
+      </c>
+      <c r="E66">
         <v>2009</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>50</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>366.5515178232008</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>18.15717861111111</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>14.85700910661405</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-7.877630601653484</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>42.6532038654081</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>78.69033879707655</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>72.27221198080964</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>69.55485197715231</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>68.26334149492351</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>66.10021792787026</v>
       </c>
     </row>
@@ -3762,42 +3962,45 @@
         </is>
       </c>
       <c r="C67">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D67">
+        <v>273</v>
+      </c>
+      <c r="E67">
         <v>2009</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>30</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>689.6714200648798</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>15.27516319444444</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>17.12954639473379</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-7.648231990560656</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>42.54266341916196</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>72.20449456469355</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>67.23071429461457</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>64.6751881360337</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>63.61944164507163</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>61.4744026303301</v>
       </c>
     </row>
@@ -3813,42 +4016,45 @@
         </is>
       </c>
       <c r="C68">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D68">
+        <v>273</v>
+      </c>
+      <c r="E68">
         <v>2009</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>30</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>934.8407679566617</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>34.03144280555556</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>19.09676420183617</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>-7.715593352565436</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>43.40788851849388</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>60.66056984948253</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>57.65685740835676</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>55.70565633494656</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>54.63026578414383</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>53.40990651169387</v>
       </c>
     </row>
@@ -3864,42 +4070,45 @@
         </is>
       </c>
       <c r="C69">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D69">
+        <v>273</v>
+      </c>
+      <c r="E69">
         <v>2009</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>36</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>655.4354234175565</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>30.87878530555556</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>17.10654663233159</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-7.579781701879596</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>43.40628224435161</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>69.53760949162043</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>64.70496926748868</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>62.56863120374926</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>61.24952671655134</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>59.7635581474722</v>
       </c>
     </row>
@@ -3915,42 +4124,45 @@
         </is>
       </c>
       <c r="C70">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D70">
+        <v>273</v>
+      </c>
+      <c r="E70">
         <v>2009</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>12</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>1909.859317102744</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>14.37505625</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>11.20028168889157</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>-7.244657585084274</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>43.46465541974096</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>49.90417416198869</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>51.22529623204205</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>49.50959515958226</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>48.31168857852393</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>47.38986598668918</v>
       </c>
     </row>
@@ -3966,42 +4178,45 @@
         </is>
       </c>
       <c r="C71">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D71">
+        <v>273</v>
+      </c>
+      <c r="E71">
         <v>2009</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>23</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>1205.191964622094</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>23.30886875</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>22.01757919725222</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-7.149107044001619</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>43.35510146007973</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>51.08536336853902</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>46.48122401459239</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>44.96390518099818</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>43.88455022700023</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>42.95247734638986</v>
       </c>
     </row>
@@ -4017,42 +4232,45 @@
         </is>
       </c>
       <c r="C72">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D72">
+        <v>273</v>
+      </c>
+      <c r="E72">
         <v>2009</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>5</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>28.29421210522584</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>2.451247222222222</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>15.75</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-7.928988414349062</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>43.21199347003814</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>69.77359372615163</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>64.617113055967</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>62.39822355463757</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>61.30363310373848</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>59.97825289173662</v>
       </c>
     </row>
@@ -4068,42 +4286,45 @@
         </is>
       </c>
       <c r="C73">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D73">
+        <v>273</v>
+      </c>
+      <c r="E73">
         <v>2009</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>18</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1088.902752869616</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>17.59543738888889</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>15.52661537269325</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-7.916998657475053</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>43.19387180644061</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>65.26786992666828</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>60.16348768630665</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>58.09301464527793</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>57.09625915199464</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>55.73539736418211</v>
       </c>
     </row>
@@ -4119,42 +4340,45 @@
         </is>
       </c>
       <c r="C74">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D74">
+        <v>273</v>
+      </c>
+      <c r="E74">
         <v>2009</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>30</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>966.6717565750407</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>29.19143988888889</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>20.75872934988243</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-7.730195042743015</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>43.30000214598608</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>59.71618781861677</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>56.02757120020244</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>54.15185775178799</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>53.16805344779258</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>51.88961182677392</v>
       </c>
     </row>
@@ -4170,42 +4394,45 @@
         </is>
       </c>
       <c r="C75">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D75">
+        <v>273</v>
+      </c>
+      <c r="E75">
         <v>2009</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>20</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>1545.571336247961</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>22.96073541666667</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>16.52538382438109</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-7.657037585194981</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>43.26314960096834</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>59.61509441979526</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>56.4782609427471</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>54.44583697059338</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>53.42291363887331</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>52.24346637320419</v>
       </c>
     </row>
@@ -4221,42 +4448,45 @@
         </is>
       </c>
       <c r="C76">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="D76">
+        <v>273</v>
+      </c>
+      <c r="E76">
         <v>2009</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>15</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>2157.009259841892</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>21.79433644444444</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>15.16422528571057</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>-7.644919866721704</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>43.25400242352011</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>59.61509441979526</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>56.48081092363386</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>54.44981188940561</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>53.42756179244479</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>52.24890464444676</v>
       </c>
     </row>
@@ -4272,42 +4502,45 @@
         </is>
       </c>
       <c r="C77">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D77">
+        <v>273</v>
+      </c>
+      <c r="E77">
         <v>2009</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>40</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>962.7105668803091</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>22.99660452777778</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>15.86446723909555</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>-7.801713264878656</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>42.15712814725748</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>71.06071815552987</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>65.11768061944647</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>62.45419206588482</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>61.38621062841052</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>58.845946361165</v>
       </c>
     </row>
@@ -4323,42 +4556,45 @@
         </is>
       </c>
       <c r="C78">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D78">
+        <v>273</v>
+      </c>
+      <c r="E78">
         <v>2009</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>25</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>133.9730943182443</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>5.708363055555555</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>16.35044244351194</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>-7.163071614745512</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>42.05862098109221</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>56.90306028221143</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>53.43999984225318</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>51.11525537781014</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>50.04572886004034</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>47.78378361956696</v>
       </c>
     </row>
@@ -4374,42 +4610,45 @@
         </is>
       </c>
       <c r="C79">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D79">
+        <v>273</v>
+      </c>
+      <c r="E79">
         <v>2009</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>37</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>1070.794457122272</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>31.67523719444445</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>22.23492077015725</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>-7.61765186430921</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>42.2721331789234</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>75.92293248431727</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>70.98769759631082</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>68.19785594202897</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>67.06122440822122</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>64.43846684581254</v>
       </c>
     </row>
@@ -4425,42 +4664,45 @@
         </is>
       </c>
       <c r="C80">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D80">
+        <v>273</v>
+      </c>
+      <c r="E80">
         <v>2009</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>20</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>1145.915590261646</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>16.9451375</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>15.70028168889153</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-7.69131914625434</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>42.22796873955978</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>75.75229672299031</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>69.67327243414523</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>66.92186133785923</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>65.81648538277668</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>63.207515073184</v>
       </c>
     </row>
@@ -4476,42 +4718,45 @@
         </is>
       </c>
       <c r="C81">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D81">
+        <v>273</v>
+      </c>
+      <c r="E81">
         <v>2009</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>67</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>651.8986469044033</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>33.82243575</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>19.43734597494548</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-6.977034683962342</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>42.20858696347357</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>57.64785432521927</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>56.50545368201566</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>53.95049291716821</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>52.58719241700213</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>50.24447020478842</v>
       </c>
     </row>
@@ -4527,42 +4772,45 @@
         </is>
       </c>
       <c r="C82">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D82">
+        <v>273</v>
+      </c>
+      <c r="E82">
         <v>2009</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>12</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>2132.676237431398</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>22.72334375</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>13.69549310447369</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-8.021074625096405</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>42.06014278901765</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>71.62021159009528</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>65.59500592573892</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>62.74870606119712</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>61.60331191204916</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>59.17379998934849</v>
       </c>
     </row>
@@ -4578,42 +4826,45 @@
         </is>
       </c>
       <c r="C83">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D83">
+        <v>273</v>
+      </c>
+      <c r="E83">
         <v>2009</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>10</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>160.7111247576828</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>5.139638888888888</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>10.82295580590684</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-7.826581335579361</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>42.12136127514737</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>71.374401746901</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>65.63014449765961</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>62.98974626540574</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>61.88892792101717</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>59.39182148208673</v>
       </c>
     </row>
@@ -4629,42 +4880,45 @@
         </is>
       </c>
       <c r="C84">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D84">
+        <v>273</v>
+      </c>
+      <c r="E84">
         <v>2009</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>37</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>178.3950073234489</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>3.663659027777777</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>10.9133122014349</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-7.139176615908754</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>42.04923009584656</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>56.90306028221143</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>52.14659681098154</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>49.8901099010025</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>48.86253379739205</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>46.61473072470294</v>
       </c>
     </row>
@@ -4680,42 +4934,45 @@
         </is>
       </c>
       <c r="C85">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D85">
+        <v>273</v>
+      </c>
+      <c r="E85">
         <v>2009</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>32</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>216.8751357865561</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>7.596576</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>14.58543669738813</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-8.282144733709799</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>42.48534994367534</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>78.86524768964438</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>72.96392760211701</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>70.15587793419365</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>69.06661877886654</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>66.87186809517578</v>
       </c>
     </row>
@@ -4731,42 +4988,45 @@
         </is>
       </c>
       <c r="C86">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D86">
+        <v>273</v>
+      </c>
+      <c r="E86">
         <v>2009</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>15</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1605.696536971566</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>15.44056875</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>12.25464773355453</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-7.701216123793524</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>42.33614998780641</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>73.9438374759166</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>68.45741733468374</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>65.77971629001225</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>64.60053608291712</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>62.21593951593542</v>
       </c>
     </row>
@@ -4782,42 +5042,45 @@
         </is>
       </c>
       <c r="C87">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D87">
+        <v>273</v>
+      </c>
+      <c r="E87">
         <v>2009</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>54</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>1058.627945917025</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>27.68731008333333</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>22.60816247542342</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>-7.27629792725731</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>42.33955390390016</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>66.42293118837397</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>61.79372189876965</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>59.24078495898602</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>58.04430066975405</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>55.79209697841155</v>
       </c>
     </row>
@@ -4833,42 +5096,45 @@
         </is>
       </c>
       <c r="C88">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D88">
+        <v>273</v>
+      </c>
+      <c r="E88">
         <v>2009</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>24</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>302.1821852838119</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>7.862813638888889</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>15.37877729911729</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-7.5814868536038</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>42.26268578013782</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>71.66200940084099</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>68.42739711128436</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>65.52504048306608</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>64.40367019073138</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>61.86257392894318</v>
       </c>
     </row>
@@ -4884,42 +5150,45 @@
         </is>
       </c>
       <c r="C89">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="D89">
+        <v>273</v>
+      </c>
+      <c r="E89">
         <v>2009</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>33</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1451.210138877033</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>28.31917197222222</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>18.82295486780598</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>-7.521516783923127</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>42.23491108950171</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>72.01859182487588</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>65.61599977316094</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>62.89525319336223</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>61.51241112769389</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>58.88340259983098</v>
       </c>
     </row>
